--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -1990,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2205,6 +2205,7 @@
       <c r="H17" t="s">
         <v>41</v>
       </c>
+      <c r="I17"/>
       <c r="J17" t="s">
         <v>42</v>
       </c>
@@ -2216,6 +2217,7 @@
       <c r="H18" t="s">
         <v>44</v>
       </c>
+      <c r="I18"/>
       <c r="J18" t="s">
         <v>45</v>
       </c>
@@ -2233,6 +2235,7 @@
       <c r="H19" t="s">
         <v>47</v>
       </c>
+      <c r="I19"/>
       <c r="J19" t="s">
         <v>48</v>
       </c>
@@ -2244,6 +2247,7 @@
       <c r="H20" t="s">
         <v>50</v>
       </c>
+      <c r="I20"/>
       <c r="J20" t="s">
         <v>51</v>
       </c>
@@ -2255,6 +2259,7 @@
       <c r="H22" t="s">
         <v>53</v>
       </c>
+      <c r="I22"/>
       <c r="J22" t="s">
         <v>54</v>
       </c>
@@ -2272,6 +2277,7 @@
       <c r="H23" t="s">
         <v>56</v>
       </c>
+      <c r="I23"/>
       <c r="J23" t="s">
         <v>57</v>
       </c>
@@ -2292,6 +2298,7 @@
       <c r="H24" t="s">
         <v>60</v>
       </c>
+      <c r="I24"/>
       <c r="J24" t="s">
         <v>61</v>
       </c>
@@ -2309,6 +2316,7 @@
       <c r="H25" t="s">
         <v>63</v>
       </c>
+      <c r="I25"/>
       <c r="J25" t="s">
         <v>64</v>
       </c>
@@ -2326,6 +2334,7 @@
       <c r="H26" t="s">
         <v>66</v>
       </c>
+      <c r="I26"/>
       <c r="J26" t="s">
         <v>67</v>
       </c>
@@ -2343,6 +2352,7 @@
       <c r="H27" t="s">
         <v>69</v>
       </c>
+      <c r="I27"/>
       <c r="J27" t="s">
         <v>70</v>
       </c>
@@ -2354,6 +2364,7 @@
       <c r="H28" t="s">
         <v>72</v>
       </c>
+      <c r="I28"/>
       <c r="J28" t="s">
         <v>73</v>
       </c>
@@ -2365,6 +2376,7 @@
       <c r="H29" t="s">
         <v>75</v>
       </c>
+      <c r="I29"/>
       <c r="J29" t="s">
         <v>76</v>
       </c>
@@ -2376,6 +2388,7 @@
       <c r="H30" t="s">
         <v>78</v>
       </c>
+      <c r="I30"/>
       <c r="J30" t="s">
         <v>79</v>
       </c>
@@ -2387,6 +2400,7 @@
       <c r="H31" t="s">
         <v>81</v>
       </c>
+      <c r="I31"/>
       <c r="J31" t="s">
         <v>82</v>
       </c>
@@ -2398,6 +2412,7 @@
       <c r="H32" t="s">
         <v>84</v>
       </c>
+      <c r="I32"/>
       <c r="J32" t="s">
         <v>84</v>
       </c>
@@ -2415,6 +2430,7 @@
       <c r="H33" t="s">
         <v>86</v>
       </c>
+      <c r="I33"/>
       <c r="J33" t="s">
         <v>86</v>
       </c>
@@ -2426,6 +2442,7 @@
       <c r="H34" t="s">
         <v>88</v>
       </c>
+      <c r="I34"/>
       <c r="J34" t="s">
         <v>89</v>
       </c>
@@ -2443,6 +2460,7 @@
       <c r="H35" t="s">
         <v>91</v>
       </c>
+      <c r="I35"/>
       <c r="J35" t="s">
         <v>92</v>
       </c>
@@ -2460,6 +2478,7 @@
       <c r="H36" t="s">
         <v>94</v>
       </c>
+      <c r="I36"/>
       <c r="J36" t="s">
         <v>95</v>
       </c>
@@ -2477,6 +2496,7 @@
       <c r="H37" t="s">
         <v>97</v>
       </c>
+      <c r="I37"/>
       <c r="J37" t="s">
         <v>97</v>
       </c>
@@ -2488,6 +2508,7 @@
       <c r="H38" t="s">
         <v>99</v>
       </c>
+      <c r="I38"/>
       <c r="J38" t="s">
         <v>100</v>
       </c>
@@ -2499,6 +2520,7 @@
       <c r="H39" t="s">
         <v>102</v>
       </c>
+      <c r="I39"/>
       <c r="J39" t="s">
         <v>103</v>
       </c>
@@ -2510,6 +2532,7 @@
       <c r="H41" t="s">
         <v>105</v>
       </c>
+      <c r="I41"/>
       <c r="J41" t="s">
         <v>105</v>
       </c>
@@ -2527,6 +2550,7 @@
       <c r="H42" t="s">
         <v>107</v>
       </c>
+      <c r="I42"/>
       <c r="J42" t="s">
         <v>108</v>
       </c>
@@ -2538,6 +2562,7 @@
       <c r="H43" t="s">
         <v>110</v>
       </c>
+      <c r="I43"/>
       <c r="J43" t="s">
         <v>111</v>
       </c>
@@ -2549,6 +2574,7 @@
       <c r="H44" t="s">
         <v>113</v>
       </c>
+      <c r="I44"/>
       <c r="J44" t="s">
         <v>114</v>
       </c>
@@ -2560,6 +2586,7 @@
       <c r="H45" t="s">
         <v>116</v>
       </c>
+      <c r="I45"/>
       <c r="J45" t="s">
         <v>117</v>
       </c>
@@ -2571,6 +2598,7 @@
       <c r="H46" t="s">
         <v>119</v>
       </c>
+      <c r="I46"/>
       <c r="J46" t="s">
         <v>120</v>
       </c>
@@ -2582,6 +2610,7 @@
       <c r="H48" t="s">
         <v>122</v>
       </c>
+      <c r="I48"/>
       <c r="J48" t="s">
         <v>123</v>
       </c>
@@ -2599,6 +2628,7 @@
       <c r="H49" t="s">
         <v>125</v>
       </c>
+      <c r="I49"/>
       <c r="J49" t="s">
         <v>126</v>
       </c>
@@ -2616,6 +2646,7 @@
       <c r="H50" t="s">
         <v>128</v>
       </c>
+      <c r="I50"/>
       <c r="J50" t="s">
         <v>129</v>
       </c>
@@ -2627,6 +2658,7 @@
       <c r="H51" t="s">
         <v>131</v>
       </c>
+      <c r="I51"/>
       <c r="J51" t="s">
         <v>132</v>
       </c>
@@ -2638,6 +2670,7 @@
       <c r="H53" t="s">
         <v>134</v>
       </c>
+      <c r="I53"/>
       <c r="J53" t="s">
         <v>135</v>
       </c>
@@ -2649,6 +2682,7 @@
       <c r="H54" t="s">
         <v>137</v>
       </c>
+      <c r="I54"/>
       <c r="J54" t="s">
         <v>138</v>
       </c>
@@ -2660,6 +2694,7 @@
       <c r="H55" t="s">
         <v>140</v>
       </c>
+      <c r="I55"/>
       <c r="J55" t="s">
         <v>141</v>
       </c>
@@ -2671,6 +2706,7 @@
       <c r="H56" t="s">
         <v>143</v>
       </c>
+      <c r="I56"/>
       <c r="J56" t="s">
         <v>144</v>
       </c>
@@ -2682,6 +2718,7 @@
       <c r="H58" t="s">
         <v>146</v>
       </c>
+      <c r="I58"/>
       <c r="J58" t="s">
         <v>146</v>
       </c>
@@ -2699,6 +2736,7 @@
       <c r="H59" t="s">
         <v>148</v>
       </c>
+      <c r="I59"/>
       <c r="J59" t="s">
         <v>148</v>
       </c>
@@ -2710,6 +2748,7 @@
       <c r="H60" t="s">
         <v>150</v>
       </c>
+      <c r="I60"/>
       <c r="J60" t="s">
         <v>150</v>
       </c>
@@ -2721,6 +2760,7 @@
       <c r="H61" t="s">
         <v>152</v>
       </c>
+      <c r="I61"/>
       <c r="J61" t="s">
         <v>152</v>
       </c>
@@ -2732,6 +2772,7 @@
       <c r="H62" t="s">
         <v>154</v>
       </c>
+      <c r="I62"/>
       <c r="J62" t="s">
         <v>155</v>
       </c>
@@ -2743,6 +2784,7 @@
       <c r="H63" t="s">
         <v>157</v>
       </c>
+      <c r="I63"/>
       <c r="J63" t="s">
         <v>158</v>
       </c>
@@ -2754,6 +2796,7 @@
       <c r="H64" t="s">
         <v>160</v>
       </c>
+      <c r="I64"/>
       <c r="J64" t="s">
         <v>161</v>
       </c>
@@ -2765,6 +2808,7 @@
       <c r="H65" t="s">
         <v>163</v>
       </c>
+      <c r="I65"/>
       <c r="J65" t="s">
         <v>164</v>
       </c>
@@ -2782,6 +2826,7 @@
       <c r="H67" t="s">
         <v>166</v>
       </c>
+      <c r="I67"/>
       <c r="J67" t="s">
         <v>167</v>
       </c>
@@ -2793,6 +2838,7 @@
       <c r="H68" t="s">
         <v>169</v>
       </c>
+      <c r="I68"/>
       <c r="J68" t="s">
         <v>170</v>
       </c>
@@ -2804,6 +2850,7 @@
       <c r="H70" t="s">
         <v>172</v>
       </c>
+      <c r="I70"/>
       <c r="J70" t="s">
         <v>173</v>
       </c>
@@ -2815,6 +2862,7 @@
       <c r="H71" t="s">
         <v>175</v>
       </c>
+      <c r="I71"/>
       <c r="J71" t="s">
         <v>176</v>
       </c>
@@ -2826,6 +2874,7 @@
       <c r="H72" t="s">
         <v>178</v>
       </c>
+      <c r="I72"/>
       <c r="J72" t="s">
         <v>179</v>
       </c>
@@ -2837,6 +2886,7 @@
       <c r="H74" t="s">
         <v>181</v>
       </c>
+      <c r="I74"/>
       <c r="J74" t="s">
         <v>182</v>
       </c>
@@ -2848,6 +2898,7 @@
       <c r="H75" t="s">
         <v>184</v>
       </c>
+      <c r="I75"/>
       <c r="J75" t="s">
         <v>185</v>
       </c>
@@ -3462,7 +3513,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,20 @@
     <sheet name="Faction" sheetId="10" r:id="rId5"/>
     <sheet name="Damage" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,7 +91,7 @@
     <t>NumericType</t>
   </si>
   <si>
-    <t>包含整个游戏内所有的关于数值方面的定义目前有几个特殊的数值, 是用int去计算float比例的, 1、法术极速2、格挡3、硬直相关4、幸运5、攻击欲望</t>
+    <t>包含整个游戏内所有的关于数值方面的定义</t>
   </si>
   <si>
     <t>MaxHp</t>
@@ -1008,7 +1021,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1991,10 +2004,10 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -2205,7 +2218,6 @@
       <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="I17"/>
       <c r="J17" t="s">
         <v>42</v>
       </c>
@@ -2217,7 +2229,6 @@
       <c r="H18" t="s">
         <v>44</v>
       </c>
-      <c r="I18"/>
       <c r="J18" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2246,6 @@
       <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="I19"/>
       <c r="J19" t="s">
         <v>48</v>
       </c>
@@ -2247,7 +2257,6 @@
       <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="I20"/>
       <c r="J20" t="s">
         <v>51</v>
       </c>
@@ -2259,7 +2268,6 @@
       <c r="H22" t="s">
         <v>53</v>
       </c>
-      <c r="I22"/>
       <c r="J22" t="s">
         <v>54</v>
       </c>
@@ -2277,7 +2285,6 @@
       <c r="H23" t="s">
         <v>56</v>
       </c>
-      <c r="I23"/>
       <c r="J23" t="s">
         <v>57</v>
       </c>
@@ -2298,7 +2305,6 @@
       <c r="H24" t="s">
         <v>60</v>
       </c>
-      <c r="I24"/>
       <c r="J24" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2322,6 @@
       <c r="H25" t="s">
         <v>63</v>
       </c>
-      <c r="I25"/>
       <c r="J25" t="s">
         <v>64</v>
       </c>
@@ -2334,7 +2339,6 @@
       <c r="H26" t="s">
         <v>66</v>
       </c>
-      <c r="I26"/>
       <c r="J26" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2356,6 @@
       <c r="H27" t="s">
         <v>69</v>
       </c>
-      <c r="I27"/>
       <c r="J27" t="s">
         <v>70</v>
       </c>
@@ -2364,7 +2367,6 @@
       <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="I28"/>
       <c r="J28" t="s">
         <v>73</v>
       </c>
@@ -2376,7 +2378,6 @@
       <c r="H29" t="s">
         <v>75</v>
       </c>
-      <c r="I29"/>
       <c r="J29" t="s">
         <v>76</v>
       </c>
@@ -2388,7 +2389,6 @@
       <c r="H30" t="s">
         <v>78</v>
       </c>
-      <c r="I30"/>
       <c r="J30" t="s">
         <v>79</v>
       </c>
@@ -2400,7 +2400,6 @@
       <c r="H31" t="s">
         <v>81</v>
       </c>
-      <c r="I31"/>
       <c r="J31" t="s">
         <v>82</v>
       </c>
@@ -2412,7 +2411,6 @@
       <c r="H32" t="s">
         <v>84</v>
       </c>
-      <c r="I32"/>
       <c r="J32" t="s">
         <v>84</v>
       </c>
@@ -2430,7 +2428,6 @@
       <c r="H33" t="s">
         <v>86</v>
       </c>
-      <c r="I33"/>
       <c r="J33" t="s">
         <v>86</v>
       </c>
@@ -2442,7 +2439,6 @@
       <c r="H34" t="s">
         <v>88</v>
       </c>
-      <c r="I34"/>
       <c r="J34" t="s">
         <v>89</v>
       </c>
@@ -2460,7 +2456,6 @@
       <c r="H35" t="s">
         <v>91</v>
       </c>
-      <c r="I35"/>
       <c r="J35" t="s">
         <v>92</v>
       </c>
@@ -2478,7 +2473,6 @@
       <c r="H36" t="s">
         <v>94</v>
       </c>
-      <c r="I36"/>
       <c r="J36" t="s">
         <v>95</v>
       </c>
@@ -2496,7 +2490,6 @@
       <c r="H37" t="s">
         <v>97</v>
       </c>
-      <c r="I37"/>
       <c r="J37" t="s">
         <v>97</v>
       </c>
@@ -2508,7 +2501,6 @@
       <c r="H38" t="s">
         <v>99</v>
       </c>
-      <c r="I38"/>
       <c r="J38" t="s">
         <v>100</v>
       </c>
@@ -2520,7 +2512,6 @@
       <c r="H39" t="s">
         <v>102</v>
       </c>
-      <c r="I39"/>
       <c r="J39" t="s">
         <v>103</v>
       </c>
@@ -2532,7 +2523,6 @@
       <c r="H41" t="s">
         <v>105</v>
       </c>
-      <c r="I41"/>
       <c r="J41" t="s">
         <v>105</v>
       </c>
@@ -2550,7 +2540,6 @@
       <c r="H42" t="s">
         <v>107</v>
       </c>
-      <c r="I42"/>
       <c r="J42" t="s">
         <v>108</v>
       </c>
@@ -2562,7 +2551,6 @@
       <c r="H43" t="s">
         <v>110</v>
       </c>
-      <c r="I43"/>
       <c r="J43" t="s">
         <v>111</v>
       </c>
@@ -2574,7 +2562,6 @@
       <c r="H44" t="s">
         <v>113</v>
       </c>
-      <c r="I44"/>
       <c r="J44" t="s">
         <v>114</v>
       </c>
@@ -2586,7 +2573,6 @@
       <c r="H45" t="s">
         <v>116</v>
       </c>
-      <c r="I45"/>
       <c r="J45" t="s">
         <v>117</v>
       </c>
@@ -2598,7 +2584,6 @@
       <c r="H46" t="s">
         <v>119</v>
       </c>
-      <c r="I46"/>
       <c r="J46" t="s">
         <v>120</v>
       </c>
@@ -2610,7 +2595,6 @@
       <c r="H48" t="s">
         <v>122</v>
       </c>
-      <c r="I48"/>
       <c r="J48" t="s">
         <v>123</v>
       </c>
@@ -2628,7 +2612,6 @@
       <c r="H49" t="s">
         <v>125</v>
       </c>
-      <c r="I49"/>
       <c r="J49" t="s">
         <v>126</v>
       </c>
@@ -2646,7 +2629,6 @@
       <c r="H50" t="s">
         <v>128</v>
       </c>
-      <c r="I50"/>
       <c r="J50" t="s">
         <v>129</v>
       </c>
@@ -2658,7 +2640,6 @@
       <c r="H51" t="s">
         <v>131</v>
       </c>
-      <c r="I51"/>
       <c r="J51" t="s">
         <v>132</v>
       </c>
@@ -2670,7 +2651,6 @@
       <c r="H53" t="s">
         <v>134</v>
       </c>
-      <c r="I53"/>
       <c r="J53" t="s">
         <v>135</v>
       </c>
@@ -2682,7 +2662,6 @@
       <c r="H54" t="s">
         <v>137</v>
       </c>
-      <c r="I54"/>
       <c r="J54" t="s">
         <v>138</v>
       </c>
@@ -2694,7 +2673,6 @@
       <c r="H55" t="s">
         <v>140</v>
       </c>
-      <c r="I55"/>
       <c r="J55" t="s">
         <v>141</v>
       </c>
@@ -2706,7 +2684,6 @@
       <c r="H56" t="s">
         <v>143</v>
       </c>
-      <c r="I56"/>
       <c r="J56" t="s">
         <v>144</v>
       </c>
@@ -2718,7 +2695,6 @@
       <c r="H58" t="s">
         <v>146</v>
       </c>
-      <c r="I58"/>
       <c r="J58" t="s">
         <v>146</v>
       </c>
@@ -2736,7 +2712,6 @@
       <c r="H59" t="s">
         <v>148</v>
       </c>
-      <c r="I59"/>
       <c r="J59" t="s">
         <v>148</v>
       </c>
@@ -2748,7 +2723,6 @@
       <c r="H60" t="s">
         <v>150</v>
       </c>
-      <c r="I60"/>
       <c r="J60" t="s">
         <v>150</v>
       </c>
@@ -2760,7 +2734,6 @@
       <c r="H61" t="s">
         <v>152</v>
       </c>
-      <c r="I61"/>
       <c r="J61" t="s">
         <v>152</v>
       </c>
@@ -2772,7 +2745,6 @@
       <c r="H62" t="s">
         <v>154</v>
       </c>
-      <c r="I62"/>
       <c r="J62" t="s">
         <v>155</v>
       </c>
@@ -2784,7 +2756,6 @@
       <c r="H63" t="s">
         <v>157</v>
       </c>
-      <c r="I63"/>
       <c r="J63" t="s">
         <v>158</v>
       </c>
@@ -2796,7 +2767,6 @@
       <c r="H64" t="s">
         <v>160</v>
       </c>
-      <c r="I64"/>
       <c r="J64" t="s">
         <v>161</v>
       </c>
@@ -2808,7 +2778,6 @@
       <c r="H65" t="s">
         <v>163</v>
       </c>
-      <c r="I65"/>
       <c r="J65" t="s">
         <v>164</v>
       </c>
@@ -2826,7 +2795,6 @@
       <c r="H67" t="s">
         <v>166</v>
       </c>
-      <c r="I67"/>
       <c r="J67" t="s">
         <v>167</v>
       </c>
@@ -2838,7 +2806,6 @@
       <c r="H68" t="s">
         <v>169</v>
       </c>
-      <c r="I68"/>
       <c r="J68" t="s">
         <v>170</v>
       </c>
@@ -2850,7 +2817,6 @@
       <c r="H70" t="s">
         <v>172</v>
       </c>
-      <c r="I70"/>
       <c r="J70" t="s">
         <v>173</v>
       </c>
@@ -2862,7 +2828,6 @@
       <c r="H71" t="s">
         <v>175</v>
       </c>
-      <c r="I71"/>
       <c r="J71" t="s">
         <v>176</v>
       </c>
@@ -2874,7 +2839,6 @@
       <c r="H72" t="s">
         <v>178</v>
       </c>
-      <c r="I72"/>
       <c r="J72" t="s">
         <v>179</v>
       </c>
@@ -2886,7 +2850,6 @@
       <c r="H74" t="s">
         <v>181</v>
       </c>
-      <c r="I74"/>
       <c r="J74" t="s">
         <v>182</v>
       </c>
@@ -2898,7 +2861,6 @@
       <c r="H75" t="s">
         <v>184</v>
       </c>
-      <c r="I75"/>
       <c r="J75" t="s">
         <v>185</v>
       </c>
@@ -2995,7 +2957,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="23.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
@@ -3080,7 +3042,7 @@
     <row r="4" s="5" customFormat="1" ht="16" customHeight="1" spans="3:3">
       <c r="C4" s="6"/>
     </row>
-    <row r="5" s="5" customFormat="1" ht="14" customHeight="1" spans="3:3">
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="3:3">
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:8">
@@ -3287,7 +3249,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3517,7 +3479,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3706,7 +3668,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3899,7 +3861,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3987,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:8">
+    <row r="6" ht="17" spans="2:8">
       <c r="B6" s="4" t="s">
         <v>313</v>
       </c>

--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17680" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Stage" sheetId="9" r:id="rId4"/>
     <sheet name="Faction" sheetId="10" r:id="rId5"/>
     <sheet name="Damage" sheetId="11" r:id="rId6"/>
+    <sheet name="Blackboard" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="334">
   <si>
     <t>##var</t>
   </si>
@@ -1016,6 +1017,24 @@
   </si>
   <si>
     <t>真实伤害</t>
+  </si>
+  <si>
+    <t>BlackboardKey</t>
+  </si>
+  <si>
+    <t>配置层面所有关于Blackboard key的枚举</t>
+  </si>
+  <si>
+    <t>HitSound</t>
+  </si>
+  <si>
+    <t>击中音效</t>
+  </si>
+  <si>
+    <t>HitFx</t>
+  </si>
+  <si>
+    <t>击中特效</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2022,8 @@
   <sheetPr/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4027,4 +4046,138 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="14.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="37.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="4.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="14.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="5.83333333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="4.83333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8">
+      <c r="G6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="6"/>
+    <workbookView windowHeight="17680" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Faction" sheetId="10" r:id="rId5"/>
     <sheet name="Damage" sheetId="11" r:id="rId6"/>
     <sheet name="Blackboard" sheetId="12" r:id="rId7"/>
+    <sheet name="Localization" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="339">
   <si>
     <t>##var</t>
   </si>
@@ -1035,6 +1036,21 @@
   </si>
   <si>
     <t>击中特效</t>
+  </si>
+  <si>
+    <t>LocalizationKey</t>
+  </si>
+  <si>
+    <t>本地化key类型</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>mana_cost</t>
+  </si>
+  <si>
+    <t>detect_range</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1063,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,12 +1083,6 @@
       <sz val="10.5"/>
       <color rgb="FF2A2B2E"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1540,137 +1550,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1697,9 +1707,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2023,7 +2030,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2163,7 +2170,7 @@
       </c>
     </row>
     <row r="10" spans="7:8">
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
@@ -4053,8 +4060,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -4180,4 +4187,137 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.9166666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="4.83333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="5.83333333333333" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="4.83333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="62" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="7"/>
+    <workbookView windowHeight="17680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="358">
   <si>
     <t>##var</t>
   </si>
@@ -432,7 +432,7 @@
     <t>法术极速</t>
   </si>
   <si>
-    <t>法术极速 ability haste(int转float)</t>
+    <t>法术极速(也就是传统的冷却缩减) ability haste(int转float)</t>
   </si>
   <si>
     <t>Ttc</t>
@@ -600,6 +600,48 @@
     <t>身高</t>
   </si>
   <si>
+    <t>Fov</t>
+  </si>
+  <si>
+    <t>视角</t>
+  </si>
+  <si>
+    <t>视度 Field of view</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>等级level</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>冷却时间 cooldown</t>
+  </si>
+  <si>
+    <t>ManaCost</t>
+  </si>
+  <si>
+    <t>蓝耗</t>
+  </si>
+  <si>
+    <t>Msn</t>
+  </si>
+  <si>
+    <t>最大召唤数</t>
+  </si>
+  <si>
+    <t>最大召唤数 max summoning num</t>
+  </si>
+  <si>
     <t>NumericLayer</t>
   </si>
   <si>
@@ -657,7 +699,7 @@
     <t>英雄</t>
   </si>
   <si>
-    <t>阵营tag</t>
+    <t>身份tag</t>
   </si>
   <si>
     <t>NPC</t>
@@ -738,6 +780,18 @@
     <t>显示信息类技能</t>
   </si>
   <si>
+    <t>AbilitySummoning</t>
+  </si>
+  <si>
+    <t>召唤类技能</t>
+  </si>
+  <si>
+    <t>AbilityReading</t>
+  </si>
+  <si>
+    <t>读条类技能</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -976,6 +1030,9 @@
   </si>
   <si>
     <t>DamageType</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>PhysicalDamage</t>
@@ -2027,10 +2084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2043,7 +2100,7 @@
     <col min="6" max="6" width="4.875" customWidth="1"/>
     <col min="7" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="10" max="10" width="47.8333333333333" customWidth="1"/>
     <col min="11" max="11" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2899,50 +2956,64 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" t="s">
+    <row r="78" spans="7:10">
+      <c r="G78" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
+      <c r="H78" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" t="s">
+        <v>192</v>
+      </c>
+      <c r="J80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81" t="s">
+        <v>194</v>
+      </c>
+      <c r="H81" t="s">
+        <v>195</v>
+      </c>
+      <c r="J81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
       <c r="G82" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H82" t="s">
-        <v>190</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="7:8">
+        <v>198</v>
+      </c>
+      <c r="J82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
       <c r="G83" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H83" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="7:8">
-      <c r="G84" t="s">
-        <v>193</v>
-      </c>
-      <c r="H84" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7">
-      <c r="G85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+        <v>200</v>
+      </c>
+      <c r="J83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -2951,18 +3022,59 @@
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H88" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="7:8">
       <c r="G89" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7">
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2977,10 +3089,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3073,7 +3185,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3082,179 +3194,195 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10">
-      <c r="G12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="7:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10">
       <c r="G13" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="7:8">
       <c r="G20" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H20" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="7:8">
       <c r="G21" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10">
-      <c r="G28" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" t="s">
-        <v>235</v>
-      </c>
-      <c r="J28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" t="s">
+        <v>246</v>
+      </c>
+      <c r="H23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="7:8">
       <c r="G30" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="7:8">
       <c r="G31" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="7:8">
       <c r="G32" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8">
-      <c r="G36" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" t="s">
-        <v>246</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3365,7 +3493,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3374,117 +3502,117 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="7:8">
       <c r="G7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="7:8">
       <c r="G8" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="H9" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="H10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="H16" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="H18" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="H19" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3723,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3604,76 +3732,76 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="H8" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J8" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3912,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3793,40 +3921,40 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="H6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="7:10">
       <c r="G8" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3835,13 +3963,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="H10" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3849,10 +3977,10 @@
     </row>
     <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3860,10 +3988,10 @@
     </row>
     <row r="12" spans="7:9">
       <c r="G12" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -3881,10 +4009,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3977,7 +4105,7 @@
     </row>
     <row r="6" ht="17" spans="2:8">
       <c r="B6" s="4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3986,64 +4114,69 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="G7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="7:8">
       <c r="G8" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="H10" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4154,7 +4287,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4163,21 +4296,21 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="G5" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="7:8">
       <c r="G6" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4194,7 +4327,7 @@
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4288,7 +4421,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4297,20 +4430,20 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="5"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="362">
   <si>
     <t>##var</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>最大召唤数 max summoning num</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>叠加层数</t>
+  </si>
+  <si>
+    <t>MaxStack</t>
+  </si>
+  <si>
+    <t>最大叠加层数</t>
   </si>
   <si>
     <t>NumericLayer</t>
@@ -2084,10 +2096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3011,70 +3023,86 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" t="s">
+    <row r="84" spans="7:8">
+      <c r="G84" t="s">
         <v>202</v>
       </c>
-      <c r="C88" t="b">
+      <c r="H84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85" t="s">
+        <v>204</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" t="b">
         <v>0</v>
       </c>
-      <c r="D88" t="b">
+      <c r="D89" t="b">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
-        <v>203</v>
-      </c>
-      <c r="H88" t="s">
-        <v>204</v>
-      </c>
-      <c r="I88">
+      <c r="G89" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8">
-      <c r="G89" t="s">
-        <v>205</v>
-      </c>
-      <c r="H89" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="7:8">
       <c r="G90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="91" spans="7:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
       <c r="G91" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" t="b">
+        <v>211</v>
+      </c>
+      <c r="H91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7">
+      <c r="G92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" t="b">
         <v>0</v>
       </c>
-      <c r="D94" t="b">
+      <c r="D95" t="b">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>211</v>
-      </c>
-      <c r="H94" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8">
       <c r="G95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H95" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3213,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3194,195 +3222,195 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="7:10">
       <c r="G13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="7:8">
       <c r="G20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="7:8">
       <c r="G21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="7:8">
       <c r="G30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="7:8">
       <c r="G31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H31" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="7:8">
       <c r="G32" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="7:8">
       <c r="G33" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3493,7 +3521,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3502,117 +3530,117 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="7:8">
       <c r="G7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="7:8">
       <c r="G8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +3751,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3732,76 +3760,76 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="J7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +3940,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3921,40 +3949,40 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="7:10">
       <c r="G8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3963,13 +3991,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3977,10 +4005,10 @@
     </row>
     <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3988,10 +4016,10 @@
     </row>
     <row r="12" spans="7:9">
       <c r="G12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -4011,7 +4039,7 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4105,7 +4133,7 @@
     </row>
     <row r="6" ht="17" spans="2:8">
       <c r="B6" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4114,18 +4142,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="7:8">
       <c r="G7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4133,50 +4161,50 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4315,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4296,21 +4324,21 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="7:8">
       <c r="G6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4421,7 +4449,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4430,20 +4458,20 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__enums__.xlsx
+++ b/Luban/ExcelConfig/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="376">
   <si>
     <t>##var</t>
   </si>
@@ -414,7 +414,7 @@
     <t>攻速</t>
   </si>
   <si>
-    <t>攻速. 暂时的考虑是, 现在不是很需要攻速属性</t>
+    <t>攻速快了, 除了读条和蓄力, 其他速度都会增加</t>
   </si>
   <si>
     <t>Cspd</t>
@@ -423,7 +423,7 @@
     <t>施法速度</t>
   </si>
   <si>
-    <t>施法速度. 目前看作用也不是很大</t>
+    <t>施法速度影响读条和蓄力的速度</t>
   </si>
   <si>
     <t>Ahaste</t>
@@ -540,6 +540,24 @@
     <t>给对方增加的仇恨值</t>
   </si>
   <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>威胁值</t>
+  </si>
+  <si>
+    <t>威胁值, 对敌方的威胁程度</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>警惕值</t>
+  </si>
+  <si>
+    <t>警惕值, 和威胁值相互作用</t>
+  </si>
+  <si>
     <t>Ads</t>
   </si>
   <si>
@@ -558,6 +576,15 @@
     <t>施法范围 cast range</t>
   </si>
   <si>
+    <t>Drange</t>
+  </si>
+  <si>
+    <t>检测范围</t>
+  </si>
+  <si>
+    <t>检测范围 detect range</t>
+  </si>
+  <si>
     <t>Srange</t>
   </si>
   <si>
@@ -654,6 +681,15 @@
     <t>最大叠加层数</t>
   </si>
   <si>
+    <t>CastAngle</t>
+  </si>
+  <si>
+    <t>施法角度</t>
+  </si>
+  <si>
+    <t>施法时要求目标的角度在范围内</t>
+  </si>
+  <si>
     <t>NumericLayer</t>
   </si>
   <si>
@@ -753,7 +789,7 @@
     <t>AbilityMoveOfPoint</t>
   </si>
   <si>
-    <t>点击移动技能</t>
+    <t>点移动技能</t>
   </si>
   <si>
     <t>AbilityMoveOfDirection</t>
@@ -804,6 +840,12 @@
     <t>读条类技能</t>
   </si>
   <si>
+    <t>AbilityCanCastOnMove</t>
+  </si>
+  <si>
+    <t>可移动施法技能</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -870,13 +912,13 @@
     <t>MoveOfPoint</t>
   </si>
   <si>
-    <t>点击移动</t>
-  </si>
-  <si>
-    <t>MoveOfPoint_Internal</t>
-  </si>
-  <si>
-    <t>点击移动-内部</t>
+    <t>点移动</t>
+  </si>
+  <si>
+    <t>MoveOfPoint_Force</t>
+  </si>
+  <si>
+    <t>强势点移动</t>
   </si>
   <si>
     <t>Leap</t>
@@ -2096,13 +2138,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -2694,13 +2736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
+    <row r="49" spans="7:10">
       <c r="G49" t="s">
         <v>124</v>
       </c>
@@ -2711,13 +2747,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
+    <row r="50" spans="7:10">
       <c r="G50" t="s">
         <v>127</v>
       </c>
@@ -2905,25 +2935,25 @@
         <v>170</v>
       </c>
     </row>
+    <row r="69" spans="7:10">
+      <c r="G69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="70" spans="7:10">
       <c r="G70" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H70" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
-      <c r="G71" t="s">
-        <v>174</v>
-      </c>
-      <c r="H71" t="s">
-        <v>175</v>
-      </c>
-      <c r="J71" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2938,171 +2968,215 @@
         <v>179</v>
       </c>
     </row>
+    <row r="73" spans="7:10">
+      <c r="G73" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" t="s">
+        <v>181</v>
+      </c>
+      <c r="J73" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="74" spans="7:10">
       <c r="G74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="7:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H77" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="J77" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J78" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
       <c r="G80" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H80" t="s">
-        <v>192</v>
-      </c>
-      <c r="J80" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="7:10">
       <c r="G81" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J81" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82" t="s">
-        <v>197</v>
-      </c>
-      <c r="H82" t="s">
-        <v>198</v>
-      </c>
-      <c r="J82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83" t="s">
         <v>199</v>
       </c>
-      <c r="H83" t="s">
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85" t="s">
         <v>200</v>
       </c>
-      <c r="J83" t="s">
+      <c r="H85" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="84" spans="7:8">
-      <c r="G84" t="s">
+      <c r="J85" t="s">
         <v>202</v>
       </c>
-      <c r="H84" t="s">
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="85" spans="7:8">
-      <c r="G85" t="s">
+      <c r="H86" t="s">
         <v>204</v>
       </c>
-      <c r="H85" t="s">
+      <c r="J86" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" t="s">
+    <row r="87" spans="7:10">
+      <c r="G87" t="s">
         <v>206</v>
       </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
+      <c r="H87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" t="s">
+        <v>209</v>
+      </c>
+      <c r="J88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
       <c r="G89" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H89" t="s">
-        <v>208</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="7:8">
       <c r="G90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H90" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="91" spans="7:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10">
       <c r="G91" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H91" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="7:7">
-      <c r="G92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" t="b">
+        <v>216</v>
+      </c>
+      <c r="J91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" t="b">
         <v>0</v>
       </c>
-      <c r="D95" t="b">
+      <c r="D94" t="b">
         <v>1</v>
       </c>
+      <c r="G94" t="s">
+        <v>219</v>
+      </c>
+      <c r="H94" t="s">
+        <v>220</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
       <c r="G95" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H95" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="7:8">
       <c r="G96" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H96" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>227</v>
+      </c>
+      <c r="H100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101" t="s">
+        <v>229</v>
+      </c>
+      <c r="H101" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3119,16 +3193,16 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="23.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="5" max="5" width="35.75" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3208,12 +3282,12 @@
     <row r="4" s="5" customFormat="1" ht="16" customHeight="1" spans="3:3">
       <c r="C4" s="6"/>
     </row>
-    <row r="5" s="5" customFormat="1" customHeight="1" spans="3:3">
+    <row r="5" s="5" customFormat="1" ht="14" customHeight="1" spans="3:3">
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3222,195 +3296,203 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="7:7">
       <c r="G9" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="7:10">
       <c r="G13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H18" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="7:8">
       <c r="G20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="7:8">
       <c r="G21" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="7:8">
       <c r="G23" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8">
+      <c r="G26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="7:8">
       <c r="G30" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="H30" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="7:8">
       <c r="G31" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="7:8">
       <c r="G32" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H32" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="7:8">
       <c r="G33" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3428,10 +3510,10 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3439,8 +3521,8 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="26.75" customWidth="1"/>
     <col min="11" max="11" width="4.875" customWidth="1"/>
@@ -3521,7 +3603,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3530,117 +3612,117 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="7:8">
       <c r="G7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="7:8">
       <c r="G8" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="7:8">
       <c r="G15" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="7:8">
       <c r="G16" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="H16" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="7:8">
       <c r="G17" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="H17" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="H19" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3658,10 +3740,10 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3751,7 +3833,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3760,76 +3842,76 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="7:10">
       <c r="G8" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="J8" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="7:10">
       <c r="G10" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="7:10">
       <c r="G12" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J12" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3932,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -3940,7 +4022,7 @@
     </row>
     <row r="6" customFormat="1" spans="2:10">
       <c r="B6" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3949,40 +4031,40 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="7:10">
       <c r="G7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="7:10">
       <c r="G8" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J8" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3991,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4005,10 +4087,10 @@
     </row>
     <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -4016,10 +4098,10 @@
     </row>
     <row r="12" spans="7:9">
       <c r="G12" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -4043,7 +4125,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -4131,9 +4213,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="2:8">
+    <row r="6" ht="15.75" spans="2:8">
       <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4142,18 +4224,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="7:8">
       <c r="G7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4161,50 +4243,50 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="7:8">
       <c r="G10" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H10" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="7:8">
       <c r="G11" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="7:8">
       <c r="G12" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H13" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4307,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="20.1666666666667" customWidth="1"/>
@@ -4315,7 +4397,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4324,21 +4406,21 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="7:8">
       <c r="G6" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="H6" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4441,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="20.1666666666667" customWidth="1"/>
@@ -4449,7 +4531,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4458,20 +4540,20 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="7:7">
       <c r="G6" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
